--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/flavorChoosenBtn.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/flavorChoosenBtn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0829\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>memory</t>
   </si>
@@ -30,13 +30,7 @@
     <t>tips</t>
   </si>
   <si>
-    <t>Select different virtual machine configuration according to specific business situations;</t>
-  </si>
-  <si>
     <t>config_is_recommend</t>
-  </si>
-  <si>
-    <t>configuration recommendations can be referred to</t>
   </si>
   <si>
     <t>core</t>
@@ -53,28 +47,6 @@
         <family val="2"/>
       </rPr>
       <t>内存</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>根据具体业务情况选择不同云主机配置，可参考</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>配置推荐</t>
     </r>
   </si>
   <si>
@@ -99,6 +71,14 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>根据具体业务情况选择不同云主机配置，可参考xxx配置推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select different virtual machine configuration according to specific business, please refer to xxx Configuration Rcommendations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -153,9 +133,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,14 +487,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -513,10 +502,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -524,40 +513,40 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C4 A1:A4" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 A1:A4 C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>